--- a/zs/01_通信录.xlsx
+++ b/zs/01_通信录.xlsx
@@ -2,27 +2,37 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project-Person\demo\AttendanceTracking\docs\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project-Person\AttendanceTracking\zs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E22B92-EE01-478D-9620-26A4FBE12066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE78021-776E-4FD6-9C49-AE0C0C555406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1850" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6084" uniqueCount="4051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6946" uniqueCount="4519">
   <si>
     <t>工号</t>
   </si>
@@ -12175,13 +12185,1418 @@
   </si>
   <si>
     <t>周权</t>
+  </si>
+  <si>
+    <t>职员</t>
+  </si>
+  <si>
+    <t>13277986477</t>
+  </si>
+  <si>
+    <t>托管中心</t>
+  </si>
+  <si>
+    <t>测试人员</t>
+  </si>
+  <si>
+    <t>实习</t>
+  </si>
+  <si>
+    <t>15879816056</t>
+  </si>
+  <si>
+    <t>武汉分公司</t>
+  </si>
+  <si>
+    <t>保管工</t>
+  </si>
+  <si>
+    <t>13657109110</t>
+  </si>
+  <si>
+    <t>物资处（仓储物流处）</t>
+  </si>
+  <si>
+    <t>待定</t>
+  </si>
+  <si>
+    <t>13871635752</t>
+  </si>
+  <si>
+    <t>机加二车间</t>
+  </si>
+  <si>
+    <t>张林青</t>
+  </si>
+  <si>
+    <t>18126042023</t>
+  </si>
+  <si>
+    <t>15090975182</t>
+  </si>
+  <si>
+    <t>付道正</t>
+  </si>
+  <si>
+    <t>15625714657</t>
+  </si>
+  <si>
+    <t>15308679966</t>
+  </si>
+  <si>
+    <t>15871078769</t>
+  </si>
+  <si>
+    <t>13035224800</t>
+  </si>
+  <si>
+    <t>杨明霞</t>
+  </si>
+  <si>
+    <t>19102790257</t>
+  </si>
+  <si>
+    <t>焦万霞</t>
+  </si>
+  <si>
+    <t>17771130896</t>
+  </si>
+  <si>
+    <t>15997264642</t>
+  </si>
+  <si>
+    <t>袁玉香</t>
+  </si>
+  <si>
+    <t>15971107997</t>
+  </si>
+  <si>
+    <t>李正倩</t>
+  </si>
+  <si>
+    <t>15271111205</t>
+  </si>
+  <si>
+    <t>罗柳凤</t>
+  </si>
+  <si>
+    <t>17396185828</t>
+  </si>
+  <si>
+    <t>17671168108</t>
+  </si>
+  <si>
+    <t>13257297159</t>
+  </si>
+  <si>
+    <t>兰连会</t>
+  </si>
+  <si>
+    <t>13871500170</t>
+  </si>
+  <si>
+    <t>18727133009</t>
+  </si>
+  <si>
+    <t>19872014598</t>
+  </si>
+  <si>
+    <t>特种工艺车间</t>
+  </si>
+  <si>
+    <t>18871016686</t>
+  </si>
+  <si>
+    <t>融合产品部</t>
+  </si>
+  <si>
+    <t>18727074671</t>
+  </si>
+  <si>
+    <t>19086309221</t>
+  </si>
+  <si>
+    <t>汪运鹏</t>
+  </si>
+  <si>
+    <t>18242261284</t>
+  </si>
+  <si>
+    <t>索宇航</t>
+  </si>
+  <si>
+    <t>18841137971</t>
+  </si>
+  <si>
+    <t>15997238510</t>
+  </si>
+  <si>
+    <t>受理中心</t>
+  </si>
+  <si>
+    <t>17671769904</t>
+  </si>
+  <si>
+    <t>焊接车间</t>
+  </si>
+  <si>
+    <t>史张李</t>
+  </si>
+  <si>
+    <t>15369701176</t>
+  </si>
+  <si>
+    <t>总装车间</t>
+  </si>
+  <si>
+    <t>15172417787</t>
+  </si>
+  <si>
+    <t>党群处（综合处）</t>
+  </si>
+  <si>
+    <t>陈胜</t>
+  </si>
+  <si>
+    <t>15952039308</t>
+  </si>
+  <si>
+    <t>王明洋</t>
+  </si>
+  <si>
+    <t>18727301986</t>
+  </si>
+  <si>
+    <t>魏正伟</t>
+  </si>
+  <si>
+    <t>17520255172</t>
+  </si>
+  <si>
+    <t>体系与架构处</t>
+  </si>
+  <si>
+    <t>何桥</t>
+  </si>
+  <si>
+    <t>15971151670</t>
+  </si>
+  <si>
+    <t>尹小宇</t>
+  </si>
+  <si>
+    <t>18202771603</t>
+  </si>
+  <si>
+    <t>雷杏子</t>
+  </si>
+  <si>
+    <t>歇岗</t>
+  </si>
+  <si>
+    <t>13707272393</t>
+  </si>
+  <si>
+    <t>流动中心</t>
+  </si>
+  <si>
+    <t>吴志学</t>
+  </si>
+  <si>
+    <t>公司领导</t>
+  </si>
+  <si>
+    <t>13971020742</t>
+  </si>
+  <si>
+    <t>外部董事</t>
+  </si>
+  <si>
+    <t>张文桥</t>
+  </si>
+  <si>
+    <t>主任</t>
+  </si>
+  <si>
+    <t>15871968951</t>
+  </si>
+  <si>
+    <t>专用装备车间</t>
+  </si>
+  <si>
+    <t>缝纫工</t>
+  </si>
+  <si>
+    <t>13972066791</t>
+  </si>
+  <si>
+    <t>杨树德</t>
+  </si>
+  <si>
+    <t>设备维修工</t>
+  </si>
+  <si>
+    <t>15997268826</t>
+  </si>
+  <si>
+    <t>安全生产处</t>
+  </si>
+  <si>
+    <t>刘龙华</t>
+  </si>
+  <si>
+    <t>设计师</t>
+  </si>
+  <si>
+    <t>15161179489</t>
+  </si>
+  <si>
+    <t>箱体产品部</t>
+  </si>
+  <si>
+    <t>铆工</t>
+  </si>
+  <si>
+    <t>15872308811</t>
+  </si>
+  <si>
+    <t>刘永胜</t>
+  </si>
+  <si>
+    <t>15172556374</t>
+  </si>
+  <si>
+    <t>陈立秀</t>
+  </si>
+  <si>
+    <t>搬运工</t>
+  </si>
+  <si>
+    <t>13477594206</t>
+  </si>
+  <si>
+    <t>黄乐平</t>
+  </si>
+  <si>
+    <t>天车工</t>
+  </si>
+  <si>
+    <t>13476401633</t>
+  </si>
+  <si>
+    <t>乔秀梅</t>
+  </si>
+  <si>
+    <t>喷漆工</t>
+  </si>
+  <si>
+    <t>13871628310</t>
+  </si>
+  <si>
+    <t>杨灵芝</t>
+  </si>
+  <si>
+    <t>铣工</t>
+  </si>
+  <si>
+    <t>13197151392</t>
+  </si>
+  <si>
+    <t>汪祥亮</t>
+  </si>
+  <si>
+    <t>冲压工</t>
+  </si>
+  <si>
+    <t>13797578086</t>
+  </si>
+  <si>
+    <t>热处理工</t>
+  </si>
+  <si>
+    <t>13396119511</t>
+  </si>
+  <si>
+    <t>田东</t>
+  </si>
+  <si>
+    <t>车工</t>
+  </si>
+  <si>
+    <t>15090962003</t>
+  </si>
+  <si>
+    <t>陶全民</t>
+  </si>
+  <si>
+    <t>主任、党支部书记</t>
+  </si>
+  <si>
+    <t>15271077992</t>
+  </si>
+  <si>
+    <t>工艺师</t>
+  </si>
+  <si>
+    <t>18971501834</t>
+  </si>
+  <si>
+    <t>工艺工程处</t>
+  </si>
+  <si>
+    <t>熊壮</t>
+  </si>
+  <si>
+    <t>售后服务工程师</t>
+  </si>
+  <si>
+    <t>13940249936</t>
+  </si>
+  <si>
+    <t>维保技术处</t>
+  </si>
+  <si>
+    <t>罗凯</t>
+  </si>
+  <si>
+    <t>13972061022</t>
+  </si>
+  <si>
+    <t>王安德</t>
+  </si>
+  <si>
+    <t>检验工</t>
+  </si>
+  <si>
+    <t>15897988984</t>
+  </si>
+  <si>
+    <t>质量安全环保部（计量检验部）</t>
+  </si>
+  <si>
+    <t>胡学全</t>
+  </si>
+  <si>
+    <t>13972209860</t>
+  </si>
+  <si>
+    <t>徐世民</t>
+  </si>
+  <si>
+    <t>15971111845</t>
+  </si>
+  <si>
+    <t>耿岩</t>
+  </si>
+  <si>
+    <t>15971081687</t>
+  </si>
+  <si>
+    <t>13995784426</t>
+  </si>
+  <si>
+    <t>13871785980</t>
+  </si>
+  <si>
+    <t>李训菊</t>
+  </si>
+  <si>
+    <t>15871046496</t>
+  </si>
+  <si>
+    <t>王平</t>
+  </si>
+  <si>
+    <t>制齿工</t>
+  </si>
+  <si>
+    <t>13886278263</t>
+  </si>
+  <si>
+    <t>安身娜</t>
+  </si>
+  <si>
+    <t>装配钳工</t>
+  </si>
+  <si>
+    <t>15717862062</t>
+  </si>
+  <si>
+    <t>康锁庭</t>
+  </si>
+  <si>
+    <t>13135863960</t>
+  </si>
+  <si>
+    <t>刘文志</t>
+  </si>
+  <si>
+    <t>划线钳工</t>
+  </si>
+  <si>
+    <t>15872309302</t>
+  </si>
+  <si>
+    <t>李江林</t>
+  </si>
+  <si>
+    <t>磨工</t>
+  </si>
+  <si>
+    <t>13227549116</t>
+  </si>
+  <si>
+    <t>高立国</t>
+  </si>
+  <si>
+    <t>15971067874</t>
+  </si>
+  <si>
+    <t>余洪</t>
+  </si>
+  <si>
+    <t>电焊工</t>
+  </si>
+  <si>
+    <t>17707250804</t>
+  </si>
+  <si>
+    <t>高满义</t>
+  </si>
+  <si>
+    <t>钳工</t>
+  </si>
+  <si>
+    <t>15572454538</t>
+  </si>
+  <si>
+    <t>王世东</t>
+  </si>
+  <si>
+    <t>钻工</t>
+  </si>
+  <si>
+    <t>15671315380</t>
+  </si>
+  <si>
+    <t>何志平</t>
+  </si>
+  <si>
+    <t>13995742260</t>
+  </si>
+  <si>
+    <t>工具钳工</t>
+  </si>
+  <si>
+    <t>15897979267</t>
+  </si>
+  <si>
+    <t>王学琴</t>
+  </si>
+  <si>
+    <t>15997294969</t>
+  </si>
+  <si>
+    <t>李树云</t>
+  </si>
+  <si>
+    <t>15971147286</t>
+  </si>
+  <si>
+    <t>王俊林</t>
+  </si>
+  <si>
+    <t>病休</t>
+  </si>
+  <si>
+    <t>15172577392</t>
+  </si>
+  <si>
+    <t>刘忠义</t>
+  </si>
+  <si>
+    <t>13657107138</t>
+  </si>
+  <si>
+    <t>邓久珠</t>
+  </si>
+  <si>
+    <t>18671020940</t>
+  </si>
+  <si>
+    <t>服务保障大队</t>
+  </si>
+  <si>
+    <t>13986350717</t>
+  </si>
+  <si>
+    <t>任敏江</t>
+  </si>
+  <si>
+    <t>13197175023</t>
+  </si>
+  <si>
+    <t>孔德斌</t>
+  </si>
+  <si>
+    <t>18371063177</t>
+  </si>
+  <si>
+    <t>尹文波</t>
+  </si>
+  <si>
+    <t>13617204386</t>
+  </si>
+  <si>
+    <t>王玉斌</t>
+  </si>
+  <si>
+    <t>15872223344</t>
+  </si>
+  <si>
+    <t>路滨</t>
+  </si>
+  <si>
+    <t>火炮装调工</t>
+  </si>
+  <si>
+    <t>13871658970</t>
+  </si>
+  <si>
+    <t>方建国</t>
+  </si>
+  <si>
+    <t>13476366787</t>
+  </si>
+  <si>
+    <t>孔红梅</t>
+  </si>
+  <si>
+    <t>产品工程师</t>
+  </si>
+  <si>
+    <t>13871623353</t>
+  </si>
+  <si>
+    <t>吴春媛</t>
+  </si>
+  <si>
+    <t>15997199245</t>
+  </si>
+  <si>
+    <t>黄学华</t>
+  </si>
+  <si>
+    <t>13986359952</t>
+  </si>
+  <si>
+    <t>13886294572</t>
+  </si>
+  <si>
+    <t>软件工程处</t>
+  </si>
+  <si>
+    <t>朱孟辉</t>
+  </si>
+  <si>
+    <t>18259098913</t>
+  </si>
+  <si>
+    <t>电子电气处</t>
+  </si>
+  <si>
+    <t>董豪</t>
+  </si>
+  <si>
+    <t>13163372697</t>
+  </si>
+  <si>
+    <t>何凯彦</t>
+  </si>
+  <si>
+    <t>13277410742</t>
+  </si>
+  <si>
+    <t>张欣</t>
+  </si>
+  <si>
+    <t>13231390626</t>
+  </si>
+  <si>
+    <t>15671621235</t>
+  </si>
+  <si>
+    <t>价格管理员</t>
+  </si>
+  <si>
+    <t>18071156161</t>
+  </si>
+  <si>
+    <t>财务金融部（价格中心）</t>
+  </si>
+  <si>
+    <t>马衍</t>
+  </si>
+  <si>
+    <t>处长</t>
+  </si>
+  <si>
+    <t>18672720012</t>
+  </si>
+  <si>
+    <t>15207279488</t>
+  </si>
+  <si>
+    <t>集成测试处</t>
+  </si>
+  <si>
+    <t>13995795735</t>
+  </si>
+  <si>
+    <t>何一陆</t>
+  </si>
+  <si>
+    <t>15735168061</t>
+  </si>
+  <si>
+    <t>公共平台处</t>
+  </si>
+  <si>
+    <t>闫丹阳</t>
+  </si>
+  <si>
+    <t>13756235642</t>
+  </si>
+  <si>
+    <t>机械结构处</t>
+  </si>
+  <si>
+    <t>张恒</t>
+  </si>
+  <si>
+    <t>15872239494</t>
+  </si>
+  <si>
+    <t>13476394917</t>
+  </si>
+  <si>
+    <t>13797621909</t>
+  </si>
+  <si>
+    <t>审计员</t>
+  </si>
+  <si>
+    <t>13487111023</t>
+  </si>
+  <si>
+    <t>党群工作部（党委宣传部）</t>
+  </si>
+  <si>
+    <t>石慧</t>
+  </si>
+  <si>
+    <t>15971081713</t>
+  </si>
+  <si>
+    <t>18371059582</t>
+  </si>
+  <si>
+    <t>马红燕</t>
+  </si>
+  <si>
+    <t>13986317766</t>
+  </si>
+  <si>
+    <t>冯建宇</t>
+  </si>
+  <si>
+    <t>15271032346</t>
+  </si>
+  <si>
+    <t>17671162454</t>
+  </si>
+  <si>
+    <t>15172686049</t>
+  </si>
+  <si>
+    <t>电钳工</t>
+  </si>
+  <si>
+    <t>13986352780</t>
+  </si>
+  <si>
+    <t>郑彩红</t>
+  </si>
+  <si>
+    <t>13257106850</t>
+  </si>
+  <si>
+    <t>13886293549</t>
+  </si>
+  <si>
+    <t>李朝阳</t>
+  </si>
+  <si>
+    <t>13697105829</t>
+  </si>
+  <si>
+    <t>15172673070</t>
+  </si>
+  <si>
+    <t>液压车间</t>
+  </si>
+  <si>
+    <t>卢宏</t>
+  </si>
+  <si>
+    <t>15172589136</t>
+  </si>
+  <si>
+    <t>齐宝全</t>
+  </si>
+  <si>
+    <t>玻璃钢制品成型工</t>
+  </si>
+  <si>
+    <t>18955241961</t>
+  </si>
+  <si>
+    <t>谢鹏辉</t>
+  </si>
+  <si>
+    <t>17607685661</t>
+  </si>
+  <si>
+    <t>陈帅</t>
+  </si>
+  <si>
+    <t>15897956121</t>
+  </si>
+  <si>
+    <t>卢安鑫</t>
+  </si>
+  <si>
+    <t>18272079732</t>
+  </si>
+  <si>
+    <t>姚文宽</t>
+  </si>
+  <si>
+    <t>15571063790</t>
+  </si>
+  <si>
+    <t>热表车间</t>
+  </si>
+  <si>
+    <t>朱明江</t>
+  </si>
+  <si>
+    <t>表面处理工(磷化)</t>
+  </si>
+  <si>
+    <t>15872341730</t>
+  </si>
+  <si>
+    <t>万永平</t>
+  </si>
+  <si>
+    <t>数控操作工</t>
+  </si>
+  <si>
+    <t>15587703183</t>
+  </si>
+  <si>
+    <t>陈浩瀚</t>
+  </si>
+  <si>
+    <t>线边保障员（刀量具保障）</t>
+  </si>
+  <si>
+    <t>15172618236</t>
+  </si>
+  <si>
+    <t>张鸿燕</t>
+  </si>
+  <si>
+    <t>13972280863</t>
+  </si>
+  <si>
+    <t>服务员</t>
+  </si>
+  <si>
+    <t>15971116478</t>
+  </si>
+  <si>
+    <t>武少华</t>
+  </si>
+  <si>
+    <t>13972270676</t>
+  </si>
+  <si>
+    <t>邱霞</t>
+  </si>
+  <si>
+    <t>15997223474</t>
+  </si>
+  <si>
+    <t>王春霞</t>
+  </si>
+  <si>
+    <t>15971087412</t>
+  </si>
+  <si>
+    <t>程云</t>
+  </si>
+  <si>
+    <t>13986348791</t>
+  </si>
+  <si>
+    <t>易艳清</t>
+  </si>
+  <si>
+    <t>13597527546</t>
+  </si>
+  <si>
+    <t>杨洪青</t>
+  </si>
+  <si>
+    <t>13871780538</t>
+  </si>
+  <si>
+    <t>物流配送工</t>
+  </si>
+  <si>
+    <t>15172551614</t>
+  </si>
+  <si>
+    <t>朱红秀</t>
+  </si>
+  <si>
+    <t>装甲车司机</t>
+  </si>
+  <si>
+    <t>13476385317</t>
+  </si>
+  <si>
+    <t>宋治彬</t>
+  </si>
+  <si>
+    <t>物流司机</t>
+  </si>
+  <si>
+    <t>13871619183</t>
+  </si>
+  <si>
+    <t>刘荣伟</t>
+  </si>
+  <si>
+    <t>13177237780</t>
+  </si>
+  <si>
+    <t>王卿治</t>
+  </si>
+  <si>
+    <t>线编保障员</t>
+  </si>
+  <si>
+    <t>15172632956</t>
+  </si>
+  <si>
+    <t>白云燕</t>
+  </si>
+  <si>
+    <t>13972277627</t>
+  </si>
+  <si>
+    <t>吴先阳</t>
+  </si>
+  <si>
+    <t>15271091763</t>
+  </si>
+  <si>
+    <t>乐春梅</t>
+  </si>
+  <si>
+    <t>13995795808</t>
+  </si>
+  <si>
+    <t>郑凤民</t>
+  </si>
+  <si>
+    <t>13797578823</t>
+  </si>
+  <si>
+    <t>罗永娥</t>
+  </si>
+  <si>
+    <t>15872229378</t>
+  </si>
+  <si>
+    <t>宋萍</t>
+  </si>
+  <si>
+    <t>13687287325</t>
+  </si>
+  <si>
+    <t>黄峰</t>
+  </si>
+  <si>
+    <t>15872251316</t>
+  </si>
+  <si>
+    <t>牛艳梅</t>
+  </si>
+  <si>
+    <t>18307210584</t>
+  </si>
+  <si>
+    <t>杨华清</t>
+  </si>
+  <si>
+    <t>副处长</t>
+  </si>
+  <si>
+    <t>15997203945</t>
+  </si>
+  <si>
+    <t>计划物控处</t>
+  </si>
+  <si>
+    <t>13995750160</t>
+  </si>
+  <si>
+    <t>副主任</t>
+  </si>
+  <si>
+    <t>13986300408</t>
+  </si>
+  <si>
+    <t>13995765285</t>
+  </si>
+  <si>
+    <t>15871008507</t>
+  </si>
+  <si>
+    <t>寇建准</t>
+  </si>
+  <si>
+    <t>晒图工</t>
+  </si>
+  <si>
+    <t>13774154860</t>
+  </si>
+  <si>
+    <t>程慧林</t>
+  </si>
+  <si>
+    <t>15971114816</t>
+  </si>
+  <si>
+    <t>设备管理员</t>
+  </si>
+  <si>
+    <t>13035214916</t>
+  </si>
+  <si>
+    <t>生产管理处</t>
+  </si>
+  <si>
+    <t>段玉成</t>
+  </si>
+  <si>
+    <t>13886268939</t>
+  </si>
+  <si>
+    <t>机加一车间</t>
+  </si>
+  <si>
+    <t>严建民</t>
+  </si>
+  <si>
+    <t>数控操作工(铣)</t>
+  </si>
+  <si>
+    <t>18271784186</t>
+  </si>
+  <si>
+    <t>沈齐梅</t>
+  </si>
+  <si>
+    <t>13774154998</t>
+  </si>
+  <si>
+    <t>陈焕香</t>
+  </si>
+  <si>
+    <t>18371031766</t>
+  </si>
+  <si>
+    <t>13797632181</t>
+  </si>
+  <si>
+    <t>张井星</t>
+  </si>
+  <si>
+    <t>线切割工</t>
+  </si>
+  <si>
+    <t>15997223703</t>
+  </si>
+  <si>
+    <t>朱红玲</t>
+  </si>
+  <si>
+    <t>15926886787</t>
+  </si>
+  <si>
+    <t>崔冬梅</t>
+  </si>
+  <si>
+    <t>13135864174</t>
+  </si>
+  <si>
+    <t>刘小丽</t>
+  </si>
+  <si>
+    <t>15071551591</t>
+  </si>
+  <si>
+    <t>13995785114</t>
+  </si>
+  <si>
+    <t>张文粉</t>
+  </si>
+  <si>
+    <t>13995794506</t>
+  </si>
+  <si>
+    <t>吴朝梅</t>
+  </si>
+  <si>
+    <t>13707272641</t>
+  </si>
+  <si>
+    <t>蔡运华</t>
+  </si>
+  <si>
+    <t>线边保障员(油辅料保障)</t>
+  </si>
+  <si>
+    <t>18371017368</t>
+  </si>
+  <si>
+    <t>赵淑雅</t>
+  </si>
+  <si>
+    <t>18872561692</t>
+  </si>
+  <si>
+    <t>戈逸航</t>
+  </si>
+  <si>
+    <t>18271221328</t>
+  </si>
+  <si>
+    <t>18671037875</t>
+  </si>
+  <si>
+    <t>13972230644</t>
+  </si>
+  <si>
+    <t>15997243588</t>
+  </si>
+  <si>
+    <t>19872036716</t>
+  </si>
+  <si>
+    <t>王雨浩</t>
+  </si>
+  <si>
+    <t>15570631220</t>
+  </si>
+  <si>
+    <t>陈俊毅</t>
+  </si>
+  <si>
+    <t>18727116895</t>
+  </si>
+  <si>
+    <t>13597515875</t>
+  </si>
+  <si>
+    <t>任贵生</t>
+  </si>
+  <si>
+    <t>18727030473</t>
+  </si>
+  <si>
+    <t>杨少敏</t>
+  </si>
+  <si>
+    <t>13476442286</t>
+  </si>
+  <si>
+    <t>18163577064</t>
+  </si>
+  <si>
+    <t>13607272507</t>
+  </si>
+  <si>
+    <t>15972234640</t>
+  </si>
+  <si>
+    <t>处长、党支部书记</t>
+  </si>
+  <si>
+    <t>18872555775</t>
+  </si>
+  <si>
+    <t>13972223524</t>
+  </si>
+  <si>
+    <t>邱绪荣</t>
+  </si>
+  <si>
+    <t>氩弧焊工</t>
+  </si>
+  <si>
+    <t>13972055413</t>
+  </si>
+  <si>
+    <t>张伟增</t>
+  </si>
+  <si>
+    <t>15971069256</t>
+  </si>
+  <si>
+    <t>韩建平</t>
+  </si>
+  <si>
+    <t>18327598541</t>
+  </si>
+  <si>
+    <t>13871660118</t>
+  </si>
+  <si>
+    <t>理化分析师</t>
+  </si>
+  <si>
+    <t>13986350402</t>
+  </si>
+  <si>
+    <t>张中华</t>
+  </si>
+  <si>
+    <t>理化试验工</t>
+  </si>
+  <si>
+    <t>13257296119</t>
+  </si>
+  <si>
+    <t>马学英</t>
+  </si>
+  <si>
+    <t>13972061232</t>
+  </si>
+  <si>
+    <t>赵云龙</t>
+  </si>
+  <si>
+    <t>13227512708</t>
+  </si>
+  <si>
+    <t>秦忆</t>
+  </si>
+  <si>
+    <t>计量工</t>
+  </si>
+  <si>
+    <t>13886269034</t>
+  </si>
+  <si>
+    <t>何雪梅</t>
+  </si>
+  <si>
+    <t>13094139080</t>
+  </si>
+  <si>
+    <t>招待所</t>
+  </si>
+  <si>
+    <t>马恒</t>
+  </si>
+  <si>
+    <t>15172561086</t>
+  </si>
+  <si>
+    <t>18827505723</t>
+  </si>
+  <si>
+    <t>保卫处</t>
+  </si>
+  <si>
+    <t>许敬华</t>
+  </si>
+  <si>
+    <t>15271127581</t>
+  </si>
+  <si>
+    <t>叶红燕</t>
+  </si>
+  <si>
+    <t>厨师</t>
+  </si>
+  <si>
+    <t>18071774078</t>
+  </si>
+  <si>
+    <t>柳志慧</t>
+  </si>
+  <si>
+    <t>13476430230</t>
+  </si>
+  <si>
+    <t>服务保障公司</t>
+  </si>
+  <si>
+    <t>何雪宏</t>
+  </si>
+  <si>
+    <t>空压工</t>
+  </si>
+  <si>
+    <t>13972277371</t>
+  </si>
+  <si>
+    <t>王香玲</t>
+  </si>
+  <si>
+    <t>13117216503</t>
+  </si>
+  <si>
+    <t>动力处</t>
+  </si>
+  <si>
+    <t>丁飞雪</t>
+  </si>
+  <si>
+    <t>化验工</t>
+  </si>
+  <si>
+    <t>谢仕珍</t>
+  </si>
+  <si>
+    <t>值班电工</t>
+  </si>
+  <si>
+    <t>15172653351</t>
+  </si>
+  <si>
+    <t>闫玉霞</t>
+  </si>
+  <si>
+    <t>15971018933</t>
+  </si>
+  <si>
+    <t>陈遂杰</t>
+  </si>
+  <si>
+    <t>试验电工</t>
+  </si>
+  <si>
+    <t>13487180003</t>
+  </si>
+  <si>
+    <t>张齐生</t>
+  </si>
+  <si>
+    <t>13986396143</t>
+  </si>
+  <si>
+    <t>董建华</t>
+  </si>
+  <si>
+    <t>13476382863</t>
+  </si>
+  <si>
+    <t>护卫队员</t>
+  </si>
+  <si>
+    <t>13687287963</t>
+  </si>
+  <si>
+    <t>张文俊</t>
+  </si>
+  <si>
+    <t>15807271100</t>
+  </si>
+  <si>
+    <t>张青波</t>
+  </si>
+  <si>
+    <t>15897979120</t>
+  </si>
+  <si>
+    <t>林辉</t>
+  </si>
+  <si>
+    <t>13657105831</t>
+  </si>
+  <si>
+    <t>杨宏慧</t>
+  </si>
+  <si>
+    <t>13797710726</t>
+  </si>
+  <si>
+    <t>张绘敏</t>
+  </si>
+  <si>
+    <t>15872308882</t>
+  </si>
+  <si>
+    <t>15872308881</t>
+  </si>
+  <si>
+    <t>代卫东</t>
+  </si>
+  <si>
+    <t>18871033633</t>
+  </si>
+  <si>
+    <t>供应商管理员</t>
+  </si>
+  <si>
+    <t>18271286342</t>
+  </si>
+  <si>
+    <t>杨靖</t>
+  </si>
+  <si>
+    <t>13476428546</t>
+  </si>
+  <si>
+    <t>岗位</t>
+  </si>
+  <si>
+    <t>登录名</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>部门</t>
+  </si>
+  <si>
+    <t>15072227577</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12197,6 +13612,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -12221,9 +13644,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -12528,15 +13961,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C2028"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A853" workbookViewId="0">
+      <selection activeCell="B891" sqref="B891"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.08984375" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="32.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -34855,25 +36291,3891 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.6328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4517</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4516</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4515</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4513</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4512</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C3" s="6" t="e">
+        <f>VLOOKUP(A3, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4511</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C4" s="6" t="str">
+        <f>VLOOKUP(A4, Sheet1!A:B, 2, FALSE)</f>
+        <v>12004006</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4509</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4466</v>
+      </c>
+      <c r="C5" s="6" t="e">
+        <f>VLOOKUP(A5, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>4507</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C6" s="6" t="str">
+        <f>VLOOKUP(A6, Sheet1!A:B, 2, FALSE)</f>
+        <v>12007001</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>4506</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4505</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4466</v>
+      </c>
+      <c r="C7" s="6" t="e">
+        <f>VLOOKUP(A7, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4504</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>4466</v>
+      </c>
+      <c r="C8" s="6" t="e">
+        <f>VLOOKUP(A8, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>4502</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4466</v>
+      </c>
+      <c r="C9" s="6" t="e">
+        <f>VLOOKUP(A9, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4500</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>4499</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4466</v>
+      </c>
+      <c r="C10" s="6" t="e">
+        <f>VLOOKUP(A10, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4498</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4466</v>
+      </c>
+      <c r="C11" s="6" t="e">
+        <f>VLOOKUP(A11, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4496</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>4480</v>
+      </c>
+      <c r="C12" s="6" t="str">
+        <f>VLOOKUP(A12, Sheet1!A:B, 2, FALSE)</f>
+        <v>12017061</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>4494</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C13" s="6" t="e">
+        <f>VLOOKUP(A13, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>4492</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C14" s="6" t="e">
+        <f>VLOOKUP(A14, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4490</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>4488</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4480</v>
+      </c>
+      <c r="C15" s="6" t="e">
+        <f>VLOOKUP(A15, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>4487</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>4486</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C16" s="6" t="e">
+        <f>VLOOKUP(A16, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>4485</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>4483</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C17" s="6" t="e">
+        <f>VLOOKUP(A17, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>4518</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>4481</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>4480</v>
+      </c>
+      <c r="C18" s="6" t="e">
+        <f>VLOOKUP(A18, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>4479</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>4478</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C19" s="6" t="e">
+        <f>VLOOKUP(A19, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>4477</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>4475</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>4474</v>
+      </c>
+      <c r="C20" s="6" t="e">
+        <f>VLOOKUP(A20, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>4473</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>4472</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C21" s="6" t="e">
+        <f>VLOOKUP(A21, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>4471</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>4469</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>4462</v>
+      </c>
+      <c r="C22" s="6" t="e">
+        <f>VLOOKUP(A22, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>4468</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>4467</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>4466</v>
+      </c>
+      <c r="C23" s="6" t="e">
+        <f>VLOOKUP(A23, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>4465</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>4462</v>
+      </c>
+      <c r="C24" s="6" t="str">
+        <f>VLOOKUP(A24, Sheet1!A:B, 2, FALSE)</f>
+        <v>02014019</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>4464</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>4463</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>4462</v>
+      </c>
+      <c r="C25" s="6" t="e">
+        <f>VLOOKUP(A25, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>4461</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>4460</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C26" s="6" t="e">
+        <f>VLOOKUP(A26, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>4459</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>4457</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C27" s="6" t="e">
+        <f>VLOOKUP(A27, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>4456</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>4455</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C28" s="6" t="e">
+        <f>VLOOKUP(A28, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>4454</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>4453</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C29" s="6" t="e">
+        <f>VLOOKUP(A29, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>4452</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>4451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>4450</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C30" s="6" t="e">
+        <f>VLOOKUP(A30, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>4449</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C31" s="6" t="str">
+        <f>VLOOKUP(A31, Sheet1!A:B, 2, FALSE)</f>
+        <v>11991031</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>4447</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4169</v>
+      </c>
+      <c r="C32" s="6" t="str">
+        <f>VLOOKUP(A32, Sheet1!A:B, 2, FALSE)</f>
+        <v>12013040</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>4446</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>4445</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C33" s="6" t="e">
+        <f>VLOOKUP(A33, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>4444</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>4443</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C34" s="6" t="e">
+        <f>VLOOKUP(A34, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>4442</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>4440</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C35" s="6" t="e">
+        <f>VLOOKUP(A35, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>4439</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C36" s="6" t="str">
+        <f>VLOOKUP(A36, Sheet1!A:B, 2, FALSE)</f>
+        <v>12003005</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>4438</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C37" s="6" t="str">
+        <f>VLOOKUP(A37, Sheet1!A:B, 2, FALSE)</f>
+        <v>12016080</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>4436</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C38" s="6" t="str">
+        <f>VLOOKUP(A38, Sheet1!A:B, 2, FALSE)</f>
+        <v>11996004</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>4435</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C39" s="6" t="str">
+        <f>VLOOKUP(A39, Sheet1!A:B, 2, FALSE)</f>
+        <v>12019023</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>4434</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C40" s="6" t="str">
+        <f>VLOOKUP(A40, Sheet1!A:B, 2, FALSE)</f>
+        <v>11994026</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>4433</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>4432</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C41" s="6" t="e">
+        <f>VLOOKUP(A41, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>4431</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>4430</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C42" s="6" t="e">
+        <f>VLOOKUP(A42, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>4429</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C43" s="6" t="str">
+        <f>VLOOKUP(A43, Sheet1!A:B, 2, FALSE)</f>
+        <v>12018202</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>4428</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>4427</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C44" s="6" t="e">
+        <f>VLOOKUP(A44, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>4426</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>4425</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C45" s="6" t="e">
+        <f>VLOOKUP(A45, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>4424</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>2512</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C46" s="6" t="str">
+        <f>VLOOKUP(A46, Sheet1!A:B, 2, FALSE)</f>
+        <v>12004023</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>4423</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>3371</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C47" s="6" t="str">
+        <f>VLOOKUP(A47, Sheet1!A:B, 2, FALSE)</f>
+        <v>12003009</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>4422</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>3473</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C48" s="6" t="str">
+        <f>VLOOKUP(A48, Sheet1!A:B, 2, FALSE)</f>
+        <v>12018073</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>4421</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>4388</v>
+      </c>
+      <c r="C49" s="6" t="str">
+        <f>VLOOKUP(A49, Sheet1!A:B, 2, FALSE)</f>
+        <v>12013018</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>4420</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>4419</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C50" s="6" t="e">
+        <f>VLOOKUP(A50, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>4418</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>4417</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C51" s="6" t="e">
+        <f>VLOOKUP(A51, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>4416</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>4415</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>4414</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C52" s="6" t="e">
+        <f>VLOOKUP(A52, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>4413</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C53" s="6" t="e">
+        <f>VLOOKUP(A53, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>4411</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C54" s="6" t="e">
+        <f>VLOOKUP(A54, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>4409</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>2533</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C55" s="6" t="str">
+        <f>VLOOKUP(A55, Sheet1!A:B, 2, FALSE)</f>
+        <v>01993089</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>4408</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C56" s="6" t="e">
+        <f>VLOOKUP(A56, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>4406</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C57" s="6" t="e">
+        <f>VLOOKUP(A57, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>4404</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C58" s="6" t="e">
+        <f>VLOOKUP(A58, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>4402</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C59" s="6" t="e">
+        <f>VLOOKUP(A59, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>4399</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>4388</v>
+      </c>
+      <c r="C60" s="6" t="str">
+        <f>VLOOKUP(A60, Sheet1!A:B, 2, FALSE)</f>
+        <v>11997002</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>4398</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C61" s="6" t="e">
+        <f>VLOOKUP(A61, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>4396</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C62" s="6" t="e">
+        <f>VLOOKUP(A62, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>4394</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>4391</v>
+      </c>
+      <c r="C63" s="6" t="e">
+        <f>VLOOKUP(A63, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>4390</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>4388</v>
+      </c>
+      <c r="C64" s="6" t="e">
+        <f>VLOOKUP(A64, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>4387</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C65" s="6" t="str">
+        <f>VLOOKUP(A65, Sheet1!A:B, 2, FALSE)</f>
+        <v>12010011</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>4385</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>4169</v>
+      </c>
+      <c r="C66" s="6" t="e">
+        <f>VLOOKUP(A66, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>4383</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>4169</v>
+      </c>
+      <c r="C67" s="6" t="e">
+        <f>VLOOKUP(A67, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>4380</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C68" s="6" t="str">
+        <f>VLOOKUP(A68, Sheet1!A:B, 2, FALSE)</f>
+        <v>12007007</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>4379</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C69" s="6" t="str">
+        <f>VLOOKUP(A69, Sheet1!A:B, 2, FALSE)</f>
+        <v>11994002</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>4378</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C70" s="6" t="str">
+        <f>VLOOKUP(A70, Sheet1!A:B, 2, FALSE)</f>
+        <v>12004007</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>4376</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>4375</v>
+      </c>
+      <c r="C71" s="6" t="str">
+        <f>VLOOKUP(A71, Sheet1!A:B, 2, FALSE)</f>
+        <v>12010003</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>4374</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C72" s="6" t="e">
+        <f>VLOOKUP(A72, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>4371</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C73" s="6" t="e">
+        <f>VLOOKUP(A73, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>4369</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C74" s="6" t="e">
+        <f>VLOOKUP(A74, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>4367</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C75" s="6" t="e">
+        <f>VLOOKUP(A75, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>4365</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C76" s="6" t="e">
+        <f>VLOOKUP(A76, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>4363</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C77" s="6" t="e">
+        <f>VLOOKUP(A77, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>4361</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C78" s="6" t="e">
+        <f>VLOOKUP(A78, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>4359</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C79" s="6" t="e">
+        <f>VLOOKUP(A79, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C80" s="6" t="e">
+        <f>VLOOKUP(A80, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>4355</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C81" s="6" t="e">
+        <f>VLOOKUP(A81, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>4352</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C82" s="6" t="e">
+        <f>VLOOKUP(A82, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C83" s="6" t="e">
+        <f>VLOOKUP(A83, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>4347</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C84" s="6" t="e">
+        <f>VLOOKUP(A84, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>4344</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>4007</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C85" s="6" t="str">
+        <f>VLOOKUP(A85, Sheet1!A:B, 2, FALSE)</f>
+        <v>02013011</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C86" s="6" t="e">
+        <f>VLOOKUP(A86, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C87" s="6" t="e">
+        <f>VLOOKUP(A87, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C88" s="6" t="e">
+        <f>VLOOKUP(A88, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C89" s="6" t="e">
+        <f>VLOOKUP(A89, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>4334</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C90" s="6" t="e">
+        <f>VLOOKUP(A90, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>4332</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C91" s="6" t="e">
+        <f>VLOOKUP(A91, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>4330</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C92" s="6" t="str">
+        <f>VLOOKUP(A92, Sheet1!A:B, 2, FALSE)</f>
+        <v>12021109</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>4328</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C93" s="6" t="e">
+        <f>VLOOKUP(A93, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C94" s="6" t="e">
+        <f>VLOOKUP(A94, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>4323</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C95" s="6" t="e">
+        <f>VLOOKUP(A95, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>4320</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>4319</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C96" s="6" t="e">
+        <f>VLOOKUP(A96, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>4316</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C97" s="6" t="e">
+        <f>VLOOKUP(A97, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>4314</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>4313</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C98" s="6" t="e">
+        <f>VLOOKUP(A98, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>4312</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>4311</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C99" s="6" t="e">
+        <f>VLOOKUP(A99, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>4309</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C100" s="6" t="e">
+        <f>VLOOKUP(A100, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>4308</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>4306</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C101" s="6" t="e">
+        <f>VLOOKUP(A101, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>4305</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>4304</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C102" s="6" t="e">
+        <f>VLOOKUP(A102, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>4302</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C103" s="6" t="str">
+        <f>VLOOKUP(A103, Sheet1!A:B, 2, FALSE)</f>
+        <v>12017061</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>4301</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>4300</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C104" s="6" t="e">
+        <f>VLOOKUP(A104, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>4299</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C105" s="6" t="str">
+        <f>VLOOKUP(A105, Sheet1!A:B, 2, FALSE)</f>
+        <v>12020015</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>4298</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>4297</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C106" s="6" t="e">
+        <f>VLOOKUP(A106, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>4296</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C107" s="6" t="str">
+        <f>VLOOKUP(A107, Sheet1!A:B, 2, FALSE)</f>
+        <v>12020014</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C108" s="6" t="str">
+        <f>VLOOKUP(A108, Sheet1!A:B, 2, FALSE)</f>
+        <v>12020016</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>4293</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C109" s="6" t="str">
+        <f>VLOOKUP(A109, Sheet1!A:B, 2, FALSE)</f>
+        <v>12020017</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>4292</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>4291</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C110" s="6" t="e">
+        <f>VLOOKUP(A110, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>4290</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>4289</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C111" s="6" t="e">
+        <f>VLOOKUP(A111, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>4288</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>4256</v>
+      </c>
+      <c r="C112" s="6" t="str">
+        <f>VLOOKUP(A112, Sheet1!A:B, 2, FALSE)</f>
+        <v>12002001</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>4287</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>4286</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>4285</v>
+      </c>
+      <c r="C113" s="6" t="e">
+        <f>VLOOKUP(A113, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>4284</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>4275</v>
+      </c>
+      <c r="C114" s="6" t="str">
+        <f>VLOOKUP(A114, Sheet1!A:B, 2, FALSE)</f>
+        <v>12014013</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>4282</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>4278</v>
+      </c>
+      <c r="C115" s="6" t="str">
+        <f>VLOOKUP(A115, Sheet1!A:B, 2, FALSE)</f>
+        <v>12016074</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>4281</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>4278</v>
+      </c>
+      <c r="C116" s="6" t="str">
+        <f>VLOOKUP(A116, Sheet1!A:B, 2, FALSE)</f>
+        <v>12020013</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>4280</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>4279</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>4278</v>
+      </c>
+      <c r="C117" s="6" t="e">
+        <f>VLOOKUP(A117, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>4277</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>4276</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>4275</v>
+      </c>
+      <c r="C118" s="6" t="e">
+        <f>VLOOKUP(A118, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>4274</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>4273</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>4256</v>
+      </c>
+      <c r="C119" s="6" t="e">
+        <f>VLOOKUP(A119, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>4272</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>4271</v>
+      </c>
+      <c r="C120" s="6" t="str">
+        <f>VLOOKUP(A120, Sheet1!A:B, 2, FALSE)</f>
+        <v>12013013</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>4270</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>4253</v>
+      </c>
+      <c r="C121" s="6" t="str">
+        <f>VLOOKUP(A121, Sheet1!A:B, 2, FALSE)</f>
+        <v>12015015</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>4269</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>4267</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>4266</v>
+      </c>
+      <c r="C122" s="6" t="e">
+        <f>VLOOKUP(A122, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>4265</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C123" s="6" t="str">
+        <f>VLOOKUP(A123, Sheet1!A:B, 2, FALSE)</f>
+        <v>02020010</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>4263</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>4253</v>
+      </c>
+      <c r="C124" s="6" t="str">
+        <f>VLOOKUP(A124, Sheet1!A:B, 2, FALSE)</f>
+        <v>12020007</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>4262</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>4261</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>4113</v>
+      </c>
+      <c r="C125" s="6" t="e">
+        <f>VLOOKUP(A125, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>4260</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>4259</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>4256</v>
+      </c>
+      <c r="C126" s="6" t="e">
+        <f>VLOOKUP(A126, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>4258</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>4257</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>4256</v>
+      </c>
+      <c r="C127" s="6" t="e">
+        <f>VLOOKUP(A127, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>4255</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>4254</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>4253</v>
+      </c>
+      <c r="C128" s="6" t="e">
+        <f>VLOOKUP(A128, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>4252</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C129" s="6" t="str">
+        <f>VLOOKUP(A129, Sheet1!A:B, 2, FALSE)</f>
+        <v>11996053</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>4251</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>4250</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>4113</v>
+      </c>
+      <c r="C130" s="6" t="e">
+        <f>VLOOKUP(A130, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>4249</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>4248</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C131" s="6" t="e">
+        <f>VLOOKUP(A131, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>4247</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>4246</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C132" s="6" t="e">
+        <f>VLOOKUP(A132, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>4244</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>4243</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C133" s="6" t="e">
+        <f>VLOOKUP(A133, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>4242</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>4240</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C134" s="6" t="e">
+        <f>VLOOKUP(A134, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>4239</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>4238</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C135" s="6" t="e">
+        <f>VLOOKUP(A135, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>4237</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>4236</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C136" s="6" t="e">
+        <f>VLOOKUP(A136, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>4235</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>4234</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C137" s="6" t="e">
+        <f>VLOOKUP(A137, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>4233</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>4232</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C138" s="6" t="e">
+        <f>VLOOKUP(A138, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>4231</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C139" s="6" t="str">
+        <f>VLOOKUP(A139, Sheet1!A:B, 2, FALSE)</f>
+        <v>12021109</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>4229</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>4228</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C140" s="6" t="e">
+        <f>VLOOKUP(A140, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>4227</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>4226</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C141" s="6" t="e">
+        <f>VLOOKUP(A141, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>4225</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>4223</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C142" s="6" t="e">
+        <f>VLOOKUP(A142, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>4222</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>4221</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C143" s="6" t="e">
+        <f>VLOOKUP(A143, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>4220</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>4219</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C144" s="6" t="e">
+        <f>VLOOKUP(A144, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C145" s="6" t="str">
+        <f>VLOOKUP(A145, Sheet1!A:B, 2, FALSE)</f>
+        <v>11998006</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>4216</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>4215</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C146" s="6" t="e">
+        <f>VLOOKUP(A146, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>4214</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>4213</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>4212</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C147" s="6" t="e">
+        <f>VLOOKUP(A147, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>4211</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C148" s="6" t="e">
+        <f>VLOOKUP(A148, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>4208</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C149" s="6" t="e">
+        <f>VLOOKUP(A149, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>4205</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>4204</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C150" s="6" t="e">
+        <f>VLOOKUP(A150, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>4203</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>4201</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C151" s="6" t="e">
+        <f>VLOOKUP(A151, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>4200</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>4198</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C152" s="6" t="e">
+        <f>VLOOKUP(A152, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>4197</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>4196</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C153" s="6" t="e">
+        <f>VLOOKUP(A153, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>4195</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C154" s="6" t="e">
+        <f>VLOOKUP(A154, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>4192</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>4190</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C155" s="6" t="e">
+        <f>VLOOKUP(A155, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>4189</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>4173</v>
+      </c>
+      <c r="C156" s="6" t="e">
+        <f>VLOOKUP(A156, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>4187</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C157" s="6" t="str">
+        <f>VLOOKUP(A157, Sheet1!A:B, 2, FALSE)</f>
+        <v>01996017</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>4186</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C158" s="6" t="str">
+        <f>VLOOKUP(A158, Sheet1!A:B, 2, FALSE)</f>
+        <v>01996059</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>4185</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>4184</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C159" s="6" t="e">
+        <f>VLOOKUP(A159, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>4183</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>4182</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>4173</v>
+      </c>
+      <c r="C160" s="6" t="e">
+        <f>VLOOKUP(A160, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>4181</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="C161" s="6" t="e">
+        <f>VLOOKUP(A161, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>4178</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>4176</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>4173</v>
+      </c>
+      <c r="C162" s="6" t="e">
+        <f>VLOOKUP(A162, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>4175</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>4174</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>4173</v>
+      </c>
+      <c r="C163" s="6" t="e">
+        <f>VLOOKUP(A163, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>4172</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>4170</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>4169</v>
+      </c>
+      <c r="C164" s="6" t="e">
+        <f>VLOOKUP(A164, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>4168</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>4167</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>3702</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C165" s="6" t="str">
+        <f>VLOOKUP(A165, Sheet1!A:B, 2, FALSE)</f>
+        <v>02011007</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>4166</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>4165</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C166" s="6" t="e">
+        <f>VLOOKUP(A166, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>4163</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>4162</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>4161</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C167" s="6" t="e">
+        <f>VLOOKUP(A167, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>4160</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>4159</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C168" s="6" t="str">
+        <f>VLOOKUP(A168, Sheet1!A:B, 2, FALSE)</f>
+        <v>01996059</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>4158</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>4156</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C169" s="6" t="e">
+        <f>VLOOKUP(A169, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>4155</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>4154</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>4153</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C170" s="6" t="e">
+        <f>VLOOKUP(A170, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>4152</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>4151</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>4150</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C171" s="6" t="e">
+        <f>VLOOKUP(A171, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>4149</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>4147</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C172" s="6" t="e">
+        <f>VLOOKUP(A172, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>4146</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C173" s="6" t="e">
+        <f>VLOOKUP(A173, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>4143</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>4142</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C174" s="6" t="e">
+        <f>VLOOKUP(A174, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>4141</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>4139</v>
+      </c>
+      <c r="C175" s="6" t="str">
+        <f>VLOOKUP(A175, Sheet1!A:B, 2, FALSE)</f>
+        <v>12020012</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>4138</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>4137</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>4136</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>4135</v>
+      </c>
+      <c r="C176" s="6" t="e">
+        <f>VLOOKUP(A176, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>4134</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>4132</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C177" s="6" t="e">
+        <f>VLOOKUP(A177, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>4131</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>3640</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>4129</v>
+      </c>
+      <c r="C178" s="6" t="str">
+        <f>VLOOKUP(A178, Sheet1!A:B, 2, FALSE)</f>
+        <v>12008001</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>4128</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>4127</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>4126</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>4125</v>
+      </c>
+      <c r="C179" s="6" t="e">
+        <f>VLOOKUP(A179, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>4124</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>4123</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>4122</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>4121</v>
+      </c>
+      <c r="C180" s="6" t="e">
+        <f>VLOOKUP(A180, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>4120</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>4119</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>4118</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>4113</v>
+      </c>
+      <c r="C181" s="6" t="e">
+        <f>VLOOKUP(A181, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>4117</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>4116</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>4113</v>
+      </c>
+      <c r="C182" s="6" t="e">
+        <f>VLOOKUP(A182, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>4115</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>4114</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>4113</v>
+      </c>
+      <c r="C183" s="6" t="e">
+        <f>VLOOKUP(A183, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>4112</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>4111</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C184" s="6" t="e">
+        <f>VLOOKUP(A184, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>4110</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>4109</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C185" s="6" t="e">
+        <f>VLOOKUP(A185, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>4108</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>4107</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>4106</v>
+      </c>
+      <c r="C186" s="6" t="e">
+        <f>VLOOKUP(A186, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>4105</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>4104</v>
+      </c>
+      <c r="C187" s="6" t="e">
+        <f>VLOOKUP(A187, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>4103</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>4102</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>4101</v>
+      </c>
+      <c r="C188" s="6" t="e">
+        <f>VLOOKUP(A188, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>4100</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>3836</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>4099</v>
+      </c>
+      <c r="C189" s="6" t="str">
+        <f>VLOOKUP(A189, Sheet1!A:B, 2, FALSE)</f>
+        <v>02023066</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>4098</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C190" s="6" t="str">
+        <f>VLOOKUP(A190, Sheet1!A:B, 2, FALSE)</f>
+        <v>02023151</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>4097</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>4096</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C191" s="6" t="e">
+        <f>VLOOKUP(A191, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>4095</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>4094</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C192" s="6" t="e">
+        <f>VLOOKUP(A192, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>4093</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>4046</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>4091</v>
+      </c>
+      <c r="C193" s="6" t="str">
+        <f>VLOOKUP(A193, Sheet1!A:B, 2, FALSE)</f>
+        <v>02014025</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>4092</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>4018</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>4091</v>
+      </c>
+      <c r="C194" s="6" t="str">
+        <f>VLOOKUP(A194, Sheet1!A:B, 2, FALSE)</f>
+        <v>02007014</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>4090</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>3838</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>4089</v>
+      </c>
+      <c r="C195" s="6" t="str">
+        <f>VLOOKUP(A195, Sheet1!A:B, 2, FALSE)</f>
+        <v>12025002</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>4088</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C196" s="6" t="str">
+        <f>VLOOKUP(A196, Sheet1!A:B, 2, FALSE)</f>
+        <v>12024092</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>4087</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C197" s="6" t="str">
+        <f>VLOOKUP(A197, Sheet1!A:B, 2, FALSE)</f>
+        <v>12024093</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>4086</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>4085</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C198" s="6" t="e">
+        <f>VLOOKUP(A198, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>4084</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C199" s="6" t="str">
+        <f>VLOOKUP(A199, Sheet1!A:B, 2, FALSE)</f>
+        <v>12024096</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>4083</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C200" s="6" t="str">
+        <f>VLOOKUP(A200, Sheet1!A:B, 2, FALSE)</f>
+        <v>02024097</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>4082</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>4081</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C201" s="6" t="e">
+        <f>VLOOKUP(A201, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>4080</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>4079</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C202" s="6" t="e">
+        <f>VLOOKUP(A202, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>4078</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>4077</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C203" s="6" t="e">
+        <f>VLOOKUP(A203, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>4076</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C204" s="6" t="str">
+        <f>VLOOKUP(A204, Sheet1!A:B, 2, FALSE)</f>
+        <v>02024101</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>4075</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>4074</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C205" s="6" t="e">
+        <f>VLOOKUP(A205, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>4073</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
+        <v>4072</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C206" s="6" t="e">
+        <f>VLOOKUP(A206, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>4071</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C207" s="6" t="str">
+        <f>VLOOKUP(A207, Sheet1!A:B, 2, FALSE)</f>
+        <v>12024104</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>4070</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>2893</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C208" s="6" t="str">
+        <f>VLOOKUP(A208, Sheet1!A:B, 2, FALSE)</f>
+        <v>12024115</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>4069</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C209" s="6" t="str">
+        <f>VLOOKUP(A209, Sheet1!A:B, 2, FALSE)</f>
+        <v>12024106</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>4068</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>4067</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C210" s="6" t="e">
+        <f>VLOOKUP(A210, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>4066</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C211" s="6" t="str">
+        <f>VLOOKUP(A211, Sheet1!A:B, 2, FALSE)</f>
+        <v>12015069</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>4065</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>4064</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C212" s="6" t="e">
+        <f>VLOOKUP(A212, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>4062</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>4039</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>4060</v>
+      </c>
+      <c r="C213" s="6" t="str">
+        <f>VLOOKUP(A213, Sheet1!A:B, 2, FALSE)</f>
+        <v>02015024</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>4059</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>4057</v>
+      </c>
+      <c r="C214" s="6" t="str">
+        <f>VLOOKUP(A214, Sheet1!A:B, 2, FALSE)</f>
+        <v>12025025</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>4056</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>4054</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>4053</v>
+      </c>
+      <c r="C215" s="6" t="e">
+        <f>VLOOKUP(A215, Sheet1!A:B, 2, FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>4052</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
